--- a/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.2.0.1 20161230/版本Bug和特性计划及评审表v5.2.0.1_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.2.0.1 20161230\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11565"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -194,12 +189,24 @@
     <t>免测，开发自测及技术经理审核</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -210,6 +217,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -217,6 +225,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -224,6 +233,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -231,23 +241,27 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,22 +269,26 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -592,14 +610,7 @@
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -948,17 +959,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="30" customWidth="1"/>
@@ -984,7 +995,7 @@
     <col min="23" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="28" customFormat="1" ht="27">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -1081,10 +1092,18 @@
       <c r="M2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="41"/>
+      <c r="N2" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="37">
+        <v>42734</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
@@ -1093,7 +1112,7 @@
       </c>
       <c r="V2" s="46"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1116,7 +1135,7 @@
       <c r="T3" s="38"/>
       <c r="U3" s="40"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -1139,7 +1158,7 @@
       <c r="T4" s="38"/>
       <c r="U4" s="40"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -1162,7 +1181,7 @@
       <c r="T5" s="38"/>
       <c r="U5" s="40"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1185,7 +1204,7 @@
       <c r="T6" s="38"/>
       <c r="U6" s="40"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -1208,7 +1227,7 @@
       <c r="T7" s="38"/>
       <c r="U7" s="40"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -1231,7 +1250,7 @@
       <c r="T8" s="38"/>
       <c r="U8" s="40"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -1254,7 +1273,7 @@
       <c r="T9" s="38"/>
       <c r="U9" s="40"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -1277,7 +1296,7 @@
       <c r="T10" s="38"/>
       <c r="U10" s="40"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -1300,7 +1319,7 @@
       <c r="T11" s="38"/>
       <c r="U11" s="40"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -1323,7 +1342,7 @@
       <c r="T12" s="38"/>
       <c r="U12" s="40"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -1346,7 +1365,7 @@
       <c r="T13" s="38"/>
       <c r="U13" s="40"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -1369,7 +1388,7 @@
       <c r="T14" s="38"/>
       <c r="U14" s="40"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -1392,7 +1411,7 @@
       <c r="T15" s="38"/>
       <c r="U15" s="40"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -1415,7 +1434,7 @@
       <c r="T16" s="38"/>
       <c r="U16" s="40"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -1438,7 +1457,7 @@
       <c r="T17" s="38"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -1461,7 +1480,7 @@
       <c r="T18" s="38"/>
       <c r="U18" s="40"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -1484,7 +1503,7 @@
       <c r="T19" s="38"/>
       <c r="U19" s="40"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -1507,7 +1526,7 @@
       <c r="T20" s="38"/>
       <c r="U20" s="40"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -1530,7 +1549,7 @@
       <c r="T21" s="38"/>
       <c r="U21" s="40"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -1553,7 +1572,7 @@
       <c r="T22" s="38"/>
       <c r="U22" s="40"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -1576,7 +1595,7 @@
       <c r="T23" s="38"/>
       <c r="U23" s="40"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -1599,7 +1618,7 @@
       <c r="T24" s="38"/>
       <c r="U24" s="40"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -1622,7 +1641,7 @@
       <c r="T25" s="38"/>
       <c r="U25" s="40"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -1645,7 +1664,7 @@
       <c r="T26" s="38"/>
       <c r="U26" s="40"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -1668,7 +1687,7 @@
       <c r="T27" s="38"/>
       <c r="U27" s="40"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -1691,7 +1710,7 @@
       <c r="T28" s="38"/>
       <c r="U28" s="40"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -1714,7 +1733,7 @@
       <c r="T29" s="38"/>
       <c r="U29" s="40"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -1737,7 +1756,7 @@
       <c r="T30" s="38"/>
       <c r="U30" s="40"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -1760,7 +1779,7 @@
       <c r="T31" s="38"/>
       <c r="U31" s="40"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -1783,7 +1802,7 @@
       <c r="T32" s="38"/>
       <c r="U32" s="40"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -1806,7 +1825,7 @@
       <c r="T33" s="38"/>
       <c r="U33" s="40"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -1829,7 +1848,7 @@
       <c r="T34" s="38"/>
       <c r="U34" s="40"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
@@ -1852,7 +1871,7 @@
       <c r="T35" s="38"/>
       <c r="U35" s="40"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
@@ -1875,7 +1894,7 @@
       <c r="T36" s="38"/>
       <c r="U36" s="40"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -1898,7 +1917,7 @@
       <c r="T37" s="38"/>
       <c r="U37" s="40"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
@@ -1921,7 +1940,7 @@
       <c r="T38" s="38"/>
       <c r="U38" s="40"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
@@ -1944,7 +1963,7 @@
       <c r="T39" s="38"/>
       <c r="U39" s="40"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -1967,7 +1986,7 @@
       <c r="T40" s="38"/>
       <c r="U40" s="40"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
@@ -1990,7 +2009,7 @@
       <c r="T41" s="38"/>
       <c r="U41" s="40"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -2013,7 +2032,7 @@
       <c r="T42" s="38"/>
       <c r="U42" s="40"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
@@ -2036,7 +2055,7 @@
       <c r="T43" s="38"/>
       <c r="U43" s="40"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -2059,7 +2078,7 @@
       <c r="T44" s="38"/>
       <c r="U44" s="40"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -2082,7 +2101,7 @@
       <c r="T45" s="38"/>
       <c r="U45" s="40"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -2105,7 +2124,7 @@
       <c r="T46" s="38"/>
       <c r="U46" s="40"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
@@ -2128,7 +2147,7 @@
       <c r="T47" s="38"/>
       <c r="U47" s="40"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
@@ -2151,7 +2170,7 @@
       <c r="T48" s="38"/>
       <c r="U48" s="40"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -2174,7 +2193,7 @@
       <c r="T49" s="38"/>
       <c r="U49" s="40"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
@@ -2197,7 +2216,7 @@
       <c r="T50" s="38"/>
       <c r="U50" s="40"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
@@ -2220,7 +2239,7 @@
       <c r="T51" s="38"/>
       <c r="U51" s="40"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -2243,7 +2262,7 @@
       <c r="T52" s="38"/>
       <c r="U52" s="40"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -2266,7 +2285,7 @@
       <c r="T53" s="38"/>
       <c r="U53" s="40"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
@@ -2289,7 +2308,7 @@
       <c r="T54" s="38"/>
       <c r="U54" s="40"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
@@ -2312,7 +2331,7 @@
       <c r="T55" s="38"/>
       <c r="U55" s="40"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -2335,7 +2354,7 @@
       <c r="T56" s="38"/>
       <c r="U56" s="40"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
@@ -2358,7 +2377,7 @@
       <c r="T57" s="38"/>
       <c r="U57" s="40"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -2381,7 +2400,7 @@
       <c r="T58" s="38"/>
       <c r="U58" s="40"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -2404,7 +2423,7 @@
       <c r="T59" s="38"/>
       <c r="U59" s="40"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -2427,7 +2446,7 @@
       <c r="T60" s="38"/>
       <c r="U60" s="40"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="38"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -2450,7 +2469,7 @@
       <c r="T61" s="38"/>
       <c r="U61" s="40"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -2473,7 +2492,7 @@
       <c r="T62" s="38"/>
       <c r="U62" s="40"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -2496,7 +2515,7 @@
       <c r="T63" s="38"/>
       <c r="U63" s="40"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -2519,7 +2538,7 @@
       <c r="T64" s="38"/>
       <c r="U64" s="40"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
@@ -2542,7 +2561,7 @@
       <c r="T65" s="38"/>
       <c r="U65" s="40"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
@@ -2565,7 +2584,7 @@
       <c r="T66" s="38"/>
       <c r="U66" s="40"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -2588,7 +2607,7 @@
       <c r="T67" s="38"/>
       <c r="U67" s="40"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
@@ -2611,7 +2630,7 @@
       <c r="T68" s="38"/>
       <c r="U68" s="40"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
@@ -2634,7 +2653,7 @@
       <c r="T69" s="38"/>
       <c r="U69" s="40"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
@@ -2657,7 +2676,7 @@
       <c r="T70" s="38"/>
       <c r="U70" s="40"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -2680,7 +2699,7 @@
       <c r="T71" s="38"/>
       <c r="U71" s="40"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -2703,7 +2722,7 @@
       <c r="T72" s="38"/>
       <c r="U72" s="40"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
@@ -2726,7 +2745,7 @@
       <c r="T73" s="38"/>
       <c r="U73" s="40"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
@@ -2749,7 +2768,7 @@
       <c r="T74" s="38"/>
       <c r="U74" s="40"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
@@ -2772,7 +2791,7 @@
       <c r="T75" s="38"/>
       <c r="U75" s="40"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -2795,7 +2814,7 @@
       <c r="T76" s="38"/>
       <c r="U76" s="40"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -2818,7 +2837,7 @@
       <c r="T77" s="38"/>
       <c r="U77" s="40"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
@@ -2841,7 +2860,7 @@
       <c r="T78" s="38"/>
       <c r="U78" s="40"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -2864,7 +2883,7 @@
       <c r="T79" s="38"/>
       <c r="U79" s="40"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -2887,7 +2906,7 @@
       <c r="T80" s="38"/>
       <c r="U80" s="40"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
@@ -2910,7 +2929,7 @@
       <c r="T81" s="38"/>
       <c r="U81" s="40"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -2933,7 +2952,7 @@
       <c r="T82" s="38"/>
       <c r="U82" s="40"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -2956,7 +2975,7 @@
       <c r="T83" s="38"/>
       <c r="U83" s="40"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -2979,7 +2998,7 @@
       <c r="T84" s="38"/>
       <c r="U84" s="40"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -3002,7 +3021,7 @@
       <c r="T85" s="38"/>
       <c r="U85" s="40"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -3025,7 +3044,7 @@
       <c r="T86" s="38"/>
       <c r="U86" s="40"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -3048,7 +3067,7 @@
       <c r="T87" s="38"/>
       <c r="U87" s="40"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -3071,7 +3090,7 @@
       <c r="T88" s="38"/>
       <c r="U88" s="40"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
@@ -3091,7 +3110,7 @@
       <c r="Q89" s="40"/>
       <c r="U89" s="40"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -3111,7 +3130,7 @@
       <c r="Q90" s="40"/>
       <c r="U90" s="40"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
@@ -3131,7 +3150,7 @@
       <c r="Q91" s="40"/>
       <c r="U91" s="40"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -3151,7 +3170,7 @@
       <c r="Q92" s="40"/>
       <c r="U92" s="40"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
@@ -3171,7 +3190,7 @@
       <c r="Q93" s="40"/>
       <c r="U93" s="40"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
@@ -3191,7 +3210,7 @@
       <c r="Q94" s="40"/>
       <c r="U94" s="40"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
@@ -3211,7 +3230,7 @@
       <c r="Q95" s="40"/>
       <c r="U95" s="40"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
@@ -3231,7 +3250,7 @@
       <c r="Q96" s="40"/>
       <c r="U96" s="40"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
@@ -3251,7 +3270,7 @@
       <c r="Q97" s="40"/>
       <c r="U97" s="40"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
@@ -3271,7 +3290,7 @@
       <c r="Q98" s="40"/>
       <c r="U98" s="40"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
@@ -3291,7 +3310,7 @@
       <c r="Q99" s="40"/>
       <c r="U99" s="40"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="38"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -3311,7 +3330,7 @@
       <c r="Q100" s="40"/>
       <c r="U100" s="40"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="38"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -3331,7 +3350,7 @@
       <c r="Q101" s="40"/>
       <c r="U101" s="40"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="38"/>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
@@ -3351,7 +3370,7 @@
       <c r="Q102" s="40"/>
       <c r="U102" s="40"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="38"/>
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
@@ -3371,7 +3390,7 @@
       <c r="Q103" s="40"/>
       <c r="U103" s="40"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="38"/>
       <c r="B104" s="38"/>
       <c r="C104" s="38"/>
@@ -3391,7 +3410,7 @@
       <c r="Q104" s="40"/>
       <c r="U104" s="40"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="38"/>
       <c r="B105" s="38"/>
       <c r="C105" s="38"/>
@@ -3411,7 +3430,7 @@
       <c r="Q105" s="40"/>
       <c r="U105" s="40"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="38"/>
       <c r="B106" s="38"/>
       <c r="C106" s="38"/>
@@ -3431,7 +3450,7 @@
       <c r="Q106" s="40"/>
       <c r="U106" s="40"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="38"/>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
@@ -3451,7 +3470,7 @@
       <c r="Q107" s="40"/>
       <c r="U107" s="40"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="38"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
@@ -3471,7 +3490,7 @@
       <c r="Q108" s="40"/>
       <c r="U108" s="40"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="38"/>
       <c r="B109" s="38"/>
       <c r="C109" s="38"/>
@@ -3491,7 +3510,7 @@
       <c r="Q109" s="40"/>
       <c r="U109" s="40"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="38"/>
       <c r="B110" s="38"/>
       <c r="C110" s="38"/>
@@ -3511,7 +3530,7 @@
       <c r="Q110" s="40"/>
       <c r="U110" s="40"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="38"/>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
@@ -3531,7 +3550,7 @@
       <c r="Q111" s="40"/>
       <c r="U111" s="40"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="38"/>
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
@@ -3551,7 +3570,7 @@
       <c r="Q112" s="40"/>
       <c r="U112" s="40"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="38"/>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
@@ -3571,7 +3590,7 @@
       <c r="Q113" s="40"/>
       <c r="U113" s="40"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="38"/>
       <c r="B114" s="38"/>
       <c r="C114" s="38"/>
@@ -3591,7 +3610,7 @@
       <c r="Q114" s="40"/>
       <c r="U114" s="40"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="38"/>
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
@@ -3611,7 +3630,7 @@
       <c r="Q115" s="40"/>
       <c r="U115" s="40"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="38"/>
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
@@ -3631,7 +3650,7 @@
       <c r="Q116" s="40"/>
       <c r="U116" s="40"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="38"/>
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
@@ -3651,7 +3670,7 @@
       <c r="Q117" s="40"/>
       <c r="U117" s="40"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="38"/>
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
@@ -3671,7 +3690,7 @@
       <c r="Q118" s="40"/>
       <c r="U118" s="40"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="38"/>
       <c r="B119" s="38"/>
       <c r="C119" s="38"/>
@@ -3691,7 +3710,7 @@
       <c r="Q119" s="40"/>
       <c r="U119" s="40"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="38"/>
       <c r="B120" s="38"/>
       <c r="C120" s="38"/>
@@ -3711,7 +3730,7 @@
       <c r="Q120" s="40"/>
       <c r="U120" s="40"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="38"/>
       <c r="B121" s="38"/>
       <c r="C121" s="38"/>
@@ -3731,7 +3750,7 @@
       <c r="Q121" s="40"/>
       <c r="U121" s="40"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="38"/>
       <c r="B122" s="38"/>
       <c r="C122" s="38"/>
@@ -3751,7 +3770,7 @@
       <c r="Q122" s="40"/>
       <c r="U122" s="40"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="38"/>
       <c r="B123" s="38"/>
       <c r="C123" s="38"/>
@@ -3771,138 +3790,138 @@
       <c r="Q123" s="40"/>
       <c r="U123" s="40"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="B124" s="38"/>
       <c r="C124" s="38"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="B125" s="38"/>
       <c r="C125" s="38"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="B126" s="38"/>
       <c r="C126" s="38"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="B127" s="38"/>
       <c r="C127" s="38"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="B128" s="38"/>
       <c r="C128" s="38"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:3">
       <c r="B129" s="38"/>
       <c r="C129" s="38"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:3">
       <c r="B130" s="38"/>
       <c r="C130" s="38"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:3">
       <c r="B131" s="38"/>
       <c r="C131" s="38"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:3">
       <c r="B132" s="38"/>
       <c r="C132" s="38"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:3">
       <c r="B133" s="38"/>
       <c r="C133" s="38"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:3">
       <c r="B134" s="38"/>
       <c r="C134" s="38"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:3">
       <c r="B135" s="38"/>
       <c r="C135" s="38"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:3">
       <c r="B136" s="38"/>
       <c r="C136" s="38"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:3">
       <c r="B137" s="38"/>
       <c r="C137" s="38"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:3">
       <c r="B138" s="38"/>
       <c r="C138" s="38"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:3">
       <c r="B139" s="38"/>
       <c r="C139" s="38"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:3">
       <c r="B140" s="38"/>
       <c r="C140" s="38"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:3">
       <c r="B141" s="38"/>
       <c r="C141" s="38"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:3">
       <c r="B142" s="38"/>
       <c r="C142" s="38"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:3">
       <c r="B143" s="38"/>
       <c r="C143" s="38"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:3">
       <c r="B144" s="38"/>
       <c r="C144" s="38"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="38"/>
       <c r="C146" s="38"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="38"/>
       <c r="C147" s="38"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="38"/>
       <c r="C148" s="38"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="38"/>
       <c r="C149" s="38"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="38"/>
       <c r="C150" s="38"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="38"/>
       <c r="C151" s="38"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3">
       <c r="B152" s="38"/>
       <c r="C152" s="38"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="38"/>
       <c r="C153" s="38"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3">
       <c r="B154" s="38"/>
       <c r="C154" s="38"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3">
       <c r="B155" s="38"/>
       <c r="C155" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3912,21 +3931,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="47" t="s">
         <v>25</v>
       </c>
@@ -3939,7 +3958,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -3950,7 +3969,7 @@
       <c r="H2" s="49"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
@@ -3979,7 +3998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="25"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -3990,7 +4009,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -4001,7 +4020,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -4012,7 +4031,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -4023,7 +4042,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -4034,7 +4053,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -4045,7 +4064,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -4056,7 +4075,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -4067,7 +4086,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -4078,7 +4097,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -4089,7 +4108,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -4118,14 +4137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4136,7 +4155,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
@@ -4162,7 +4181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="17" customFormat="1">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4172,7 +4191,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -4182,7 +4201,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -4192,7 +4211,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -4202,7 +4221,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -4212,7 +4231,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -4222,7 +4241,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -4232,7 +4251,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -4242,7 +4261,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -4252,7 +4271,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -4262,7 +4281,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -4272,7 +4291,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -4282,7 +4301,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -4292,7 +4311,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -4302,7 +4321,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -4312,7 +4331,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -4322,7 +4341,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -4332,7 +4351,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -4354,14 +4373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -5197,7 +5216,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
         <v>42</v>
       </c>
@@ -5214,7 +5233,7 @@
       <c r="L1" s="47"/>
       <c r="M1" s="48"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -5229,7 +5248,7 @@
       <c r="L2" s="49"/>
       <c r="M2" s="50"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
@@ -5270,7 +5289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="16.5">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -5285,7 +5304,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="11"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -5300,7 +5319,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="11"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5315,7 +5334,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -5330,7 +5349,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -5363,14 +5382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -6206,7 +6225,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
         <v>42</v>
       </c>
@@ -6223,7 +6242,7 @@
       <c r="L1" s="47"/>
       <c r="M1" s="48"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -6238,7 +6257,7 @@
       <c r="L2" s="49"/>
       <c r="M2" s="50"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
@@ -6279,7 +6298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="16.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6296,7 +6315,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -6313,7 +6332,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -6330,7 +6349,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -6363,14 +6382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -7206,7 +7225,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
         <v>42</v>
       </c>
@@ -7223,7 +7242,7 @@
       <c r="L1" s="47"/>
       <c r="M1" s="48"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -7238,7 +7257,7 @@
       <c r="L2" s="49"/>
       <c r="M2" s="50"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
@@ -7279,7 +7298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="16.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -7296,7 +7315,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -7313,7 +7332,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -7330,7 +7349,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7345,7 +7364,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
